--- a/4-FerramentasDeDados/13. Validação de Dados - Replicando Validações - Material(1).xlsx
+++ b/4-FerramentasDeDados/13. Validação de Dados - Replicando Validações - Material(1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaof\Desktop\Excel Impressionador 2021\Módulo 7 - Ferramentas de Dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cursos\excel\4-FerramentasDeDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C740BA-6949-4CBA-B312-CF1D59B75C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28F6266-DBD6-440B-9663-E7E1674EDCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="1000" xr2:uid="{0D445F65-54A1-41E5-865A-2279466CCF1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="1000" xr2:uid="{0D445F65-54A1-41E5-865A-2279466CCF1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
   <si>
     <t>Nome</t>
   </si>
@@ -47,15 +47,6 @@
     <t>Equipe</t>
   </si>
   <si>
-    <t>Mega</t>
-  </si>
-  <si>
-    <t>Ultra</t>
-  </si>
-  <si>
-    <t>Blaster</t>
-  </si>
-  <si>
     <t>Power</t>
   </si>
   <si>
@@ -240,12 +231,33 @@
   </si>
   <si>
     <t>País</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>João Lira</t>
+  </si>
+  <si>
+    <t>Filipe</t>
+  </si>
+  <si>
+    <t>Ultra Power</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>Gold</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
@@ -265,18 +277,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -296,8 +302,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -320,31 +338,264 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Branco" pivot="0" count="0" xr9:uid="{70924DE6-CBF5-4179-B3BB-9B8805D1D52A}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -356,10 +607,25 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{94040482-89F8-40A7-A4AC-8B4F1A9B812C}" name="Tabela2" displayName="Tabela2" ref="A1:F3" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:F3" xr:uid="{94040482-89F8-40A7-A4AC-8B4F1A9B812C}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{52EFAB99-7415-4467-A109-DF67CE1DE021}" name="Nome" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{1C6B8781-F8E4-4EE9-AC0A-6D8DB3952E62}" name="Equipe" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{1852E0CE-0E69-4E55-8B8C-957C0EC31DAD}" name="Sexo" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{8E38C596-C585-4570-86CC-36D8E8F49D6A}" name="Idade" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{4634DC9B-272C-4AFC-BA19-071BFCBB9FA1}" name="Nascimento" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{E8B7DD55-20B4-4020-926A-FB34F211CCBC}" name="CPF" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="Branco" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -397,7 +663,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -503,7 +769,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -645,7 +911,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -653,171 +919,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D11AF4-2C8D-4548-9F11-4E03C4C35DE5}">
-  <dimension ref="A1:I7089"/>
+  <dimension ref="A1:I7073"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
-    <col min="2" max="6" width="19.21875" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="6" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="12">
+        <v>25</v>
+      </c>
+      <c r="E2" s="13">
+        <v>36489</v>
+      </c>
+      <c r="F2" s="14">
+        <v>12821433441</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="H3" s="2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="H3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="H4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="H5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="7089" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7089" s="1"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7073" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7073" s="1"/>
     </row>
   </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Prezado," error="Verifica se o CPF está com exatamente 11 caracteres. Caso contrário, repita o preenchimento._x000a_" sqref="F2:F3" xr:uid="{27A84F5F-7902-4358-89F0-8A98AAF431CC}">
+      <formula1>11</formula1>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{F96F92F4-E304-4826-8B1B-1CA9D39D4298}">
+      <formula1>36474</formula1>
+      <formula2>45986</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Prezado," error="Verifique se colocou um numero inteiro, caso contrário o valor não será aceito no excel." sqref="D2:D3" xr:uid="{77E7DD9C-FC20-404D-8659-3DDF8142E8C9}">
+      <formula1>0</formula1>
+      <formula2>200</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Opcoes de Sexo" prompt="Masculino, Feminino, Outros" sqref="C2:C3" xr:uid="{047CF554-8DD2-4498-878E-7FC2A5BFEC4B}">
+      <formula1>"Masculino, Feminino, Outros"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3" xr:uid="{754CC924-5874-4600-A528-F587BEB777B4}">
+      <formula1>$H$3:$H$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -827,296 +1050,296 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="21.21875" customWidth="1"/>
+    <col min="1" max="5" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="7" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="C8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="C10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="D11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1129,22 +1352,22 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="30.21875" customWidth="1"/>
+    <col min="1" max="2" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/4-FerramentasDeDados/13. Validação de Dados - Replicando Validações - Material(1).xlsx
+++ b/4-FerramentasDeDados/13. Validação de Dados - Replicando Validações - Material(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cursos\excel\4-FerramentasDeDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28F6266-DBD6-440B-9663-E7E1674EDCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E2AFFA-3917-4459-9534-5447C5D1FDA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="1000" xr2:uid="{0D445F65-54A1-41E5-865A-2279466CCF1F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
   <si>
     <t>Nome</t>
   </si>
@@ -252,6 +252,12 @@
   </si>
   <si>
     <t>Gold</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Feminino</t>
   </si>
 </sst>
 </file>
@@ -435,6 +441,130 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -468,130 +598,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Branco" pivot="0" count="0" xr9:uid="{70924DE6-CBF5-4179-B3BB-9B8805D1D52A}"/>
@@ -608,15 +614,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{94040482-89F8-40A7-A4AC-8B4F1A9B812C}" name="Tabela2" displayName="Tabela2" ref="A1:F3" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
-  <autoFilter ref="A1:F3" xr:uid="{94040482-89F8-40A7-A4AC-8B4F1A9B812C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{94040482-89F8-40A7-A4AC-8B4F1A9B812C}" name="Tabela2" displayName="Tabela2" ref="A1:F4" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:F4" xr:uid="{94040482-89F8-40A7-A4AC-8B4F1A9B812C}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{52EFAB99-7415-4467-A109-DF67CE1DE021}" name="Nome" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{1C6B8781-F8E4-4EE9-AC0A-6D8DB3952E62}" name="Equipe" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{1852E0CE-0E69-4E55-8B8C-957C0EC31DAD}" name="Sexo" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{8E38C596-C585-4570-86CC-36D8E8F49D6A}" name="Idade" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{4634DC9B-272C-4AFC-BA19-071BFCBB9FA1}" name="Nascimento" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{E8B7DD55-20B4-4020-926A-FB34F211CCBC}" name="CPF" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{52EFAB99-7415-4467-A109-DF67CE1DE021}" name="Nome" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{1C6B8781-F8E4-4EE9-AC0A-6D8DB3952E62}" name="Equipe" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{1852E0CE-0E69-4E55-8B8C-957C0EC31DAD}" name="Sexo" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{8E38C596-C585-4570-86CC-36D8E8F49D6A}" name="Idade" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{4634DC9B-272C-4AFC-BA19-071BFCBB9FA1}" name="Nascimento" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{E8B7DD55-20B4-4020-926A-FB34F211CCBC}" name="CPF" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Branco" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -922,7 +928,7 @@
   <dimension ref="A1:I7073"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H5" sqref="H5:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,6 +1000,18 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
       <c r="H4" t="s">
         <v>67</v>
       </c>
@@ -1018,21 +1036,21 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Prezado," error="Verifica se o CPF está com exatamente 11 caracteres. Caso contrário, repita o preenchimento._x000a_" sqref="F2:F3" xr:uid="{27A84F5F-7902-4358-89F0-8A98AAF431CC}">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Prezado," error="Verifica se o CPF está com exatamente 11 caracteres. Caso contrário, repita o preenchimento._x000a_" sqref="F2:F4" xr:uid="{27A84F5F-7902-4358-89F0-8A98AAF431CC}">
       <formula1>11</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{F96F92F4-E304-4826-8B1B-1CA9D39D4298}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{F96F92F4-E304-4826-8B1B-1CA9D39D4298}">
       <formula1>36474</formula1>
       <formula2>45986</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Prezado," error="Verifique se colocou um numero inteiro, caso contrário o valor não será aceito no excel." sqref="D2:D3" xr:uid="{77E7DD9C-FC20-404D-8659-3DDF8142E8C9}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Prezado," error="Verifique se colocou um numero inteiro, caso contrário o valor não será aceito no excel." sqref="D2:D4" xr:uid="{77E7DD9C-FC20-404D-8659-3DDF8142E8C9}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Opcoes de Sexo" prompt="Masculino, Feminino, Outros" sqref="C2:C3" xr:uid="{047CF554-8DD2-4498-878E-7FC2A5BFEC4B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Opcoes de Sexo" prompt="Masculino, Feminino, Outros" sqref="C2:C4" xr:uid="{047CF554-8DD2-4498-878E-7FC2A5BFEC4B}">
       <formula1>"Masculino, Feminino, Outros"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3" xr:uid="{754CC924-5874-4600-A528-F587BEB777B4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4" xr:uid="{754CC924-5874-4600-A528-F587BEB777B4}">
       <formula1>$H$3:$H$4</formula1>
     </dataValidation>
   </dataValidations>
